--- a/5-audio.xlsx
+++ b/5-audio.xlsx
@@ -40,7 +40,7 @@
     <x:t>Tom Petty</x:t>
   </x:si>
   <x:si>
-    <x:t>https://rpa.mjcdn.cc/1d0152a80e015c8e90260df74f221951/g2WJ3mhjgHA</x:t>
+    <x:t>Daughtry - Crawling Back To You.mp3</x:t>
   </x:si>
   <x:si>
     <x:t>Wobble</x:t>
@@ -52,7 +52,7 @@
     <x:t>Wobble V.I.C.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://nye.mjcdn.cc/f45468ffe044447c89684cf357dfba71/2IHomA2TcJ4</x:t>
+    <x:t>V.I.C. - Wobble.mp3</x:t>
   </x:si>
   <x:si>
     <x:t>Danza Kuduro</x:t>
@@ -64,7 +64,7 @@
     <x:t>Danza Kuduro Don Omar &amp; Lucenzo ft. Lucenzo</x:t>
   </x:si>
   <x:si>
-    <x:t>https://gkw.mjcdn.cc/9c48d07f6ca7d3600c2b0453102296c6/7zp1TbLFPp8</x:t>
+    <x:t>Don Omar - Danza Kuduro ft. Lucenzo.mp3</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/5-audio.xlsx
+++ b/5-audio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <x:si>
     <x:t>name</x:t>
   </x:si>
@@ -34,37 +34,49 @@
     <x:t>index</x:t>
   </x:si>
   <x:si>
+    <x:t>Crawling Back To You</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Backstreet Boys</x:t>
+  </x:si>
+  <x:si>
     <x:t>Crawling Back to You</x:t>
   </x:si>
   <x:si>
-    <x:t>Tom Petty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daughtry - Crawling Back To You.mp3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wobble</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V.I.C.</x:t>
+    <x:t>D:\csnm\Crawling Back To You - Backstreet Boys [MP3 128kbps].mp3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://data.chiasenhac.com/data/cover/4/3952.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V.I.P. (They're Callin' Me Tonight)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C.C. Catch</x:t>
   </x:si>
   <x:si>
     <x:t>Wobble V.I.C.</x:t>
   </x:si>
   <x:si>
-    <x:t>V.I.C. - Wobble.mp3</x:t>
+    <x:t>D:\csnm\V_I_P_ They_re Callin_ Me Tonight_ - C_C [MP3 128kbps].mp3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://data.chiasenhac.com/data/cover/12/11514.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>Danza Kuduro</x:t>
   </x:si>
   <x:si>
-    <x:t>Don Omar &amp; Lucenzo ft. Lucenzo</x:t>
+    <x:t>Don Omar; Lucenzo</x:t>
   </x:si>
   <x:si>
     <x:t>Danza Kuduro Don Omar &amp; Lucenzo ft. Lucenzo</x:t>
   </x:si>
   <x:si>
-    <x:t>Don Omar - Danza Kuduro ft. Lucenzo.mp3</x:t>
+    <x:t>D:\csnm\Danza Kuduro - Don Omar_ Lucenzo [MP3 128kbps].mp3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://chiasenhac.vn/images/player_csn.png</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -455,10 +467,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>1</x:v>
@@ -466,16 +481,19 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>2</x:v>
@@ -483,16 +501,19 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
